--- a/src/a_place_for_salvador_allende_investigation.xlsx
+++ b/src/a_place_for_salvador_allende_investigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoGro\Desktop\Repos\a-place-for-salvador-allende\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFC0EBE-D07D-4C8A-85E4-96CC8AD1551E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69FBFED-DB01-4FB5-831E-06E32CBDDF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33480" yWindow="2925" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allende" sheetId="1" r:id="rId1"/>
@@ -14205,10 +14205,10 @@
   <dimension ref="A1:AO781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B193" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="R214" sqref="R214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/src/a_place_for_salvador_allende_investigation.xlsx
+++ b/src/a_place_for_salvador_allende_investigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoGro\Desktop\Repos\a-place-for-salvador-allende\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69FBFED-DB01-4FB5-831E-06E32CBDDF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB9D761-7098-4E07-BBFC-5072E6727B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="2925" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allende" sheetId="1" r:id="rId1"/>
@@ -14199,16 +14199,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AO781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B193" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R214" sqref="R214"/>
+      <selection pane="bottomRight" activeCell="A712" sqref="A712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14329,7 +14329,7 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -14422,7 +14422,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
     </row>
-    <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -14515,7 +14515,7 @@
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
     </row>
-    <row r="4" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -14596,7 +14596,7 @@
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
     </row>
-    <row r="5" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -14683,7 +14683,7 @@
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
     </row>
-    <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -14772,7 +14772,7 @@
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
     </row>
-    <row r="7" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -14863,7 +14863,7 @@
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
     </row>
-    <row r="8" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -14950,7 +14950,7 @@
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
     </row>
-    <row r="9" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -15039,7 +15039,7 @@
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
     </row>
-    <row r="10" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -15128,7 +15128,7 @@
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -15219,7 +15219,7 @@
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
     </row>
-    <row r="12" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -15310,7 +15310,7 @@
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
     </row>
-    <row r="13" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -15395,7 +15395,7 @@
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
     </row>
-    <row r="14" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -15486,7 +15486,7 @@
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
     </row>
-    <row r="15" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -15573,7 +15573,7 @@
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
     </row>
-    <row r="16" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -15662,7 +15662,7 @@
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
     </row>
-    <row r="17" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -15745,7 +15745,7 @@
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
     </row>
-    <row r="18" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -15832,7 +15832,7 @@
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
     </row>
-    <row r="19" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -15925,7 +15925,7 @@
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
     </row>
-    <row r="20" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -16014,7 +16014,7 @@
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -16105,7 +16105,7 @@
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
     </row>
-    <row r="22" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -16200,7 +16200,7 @@
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
     </row>
-    <row r="23" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -16297,7 +16297,7 @@
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
     </row>
-    <row r="24" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -16388,7 +16388,7 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
     </row>
-    <row r="25" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -16561,7 +16561,7 @@
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
     </row>
-    <row r="27" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -16646,7 +16646,7 @@
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
     </row>
-    <row r="28" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -16737,7 +16737,7 @@
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
     </row>
-    <row r="29" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -16832,7 +16832,7 @@
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
     </row>
-    <row r="30" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -17921,7 +17921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -18888,7 +18888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -19104,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -19175,7 +19175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -19234,7 +19234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -19296,7 +19296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -19571,7 +19571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -19704,7 +19704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -19840,7 +19840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -19914,7 +19914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -20047,7 +20047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -20313,7 +20313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -20659,7 +20659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -20721,7 +20721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -20890,7 +20890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -21121,7 +21121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -21195,7 +21195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -21275,7 +21275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -21426,7 +21426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -21500,7 +21500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -21577,7 +21577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -21648,7 +21648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -21799,7 +21799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -22089,7 +22089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -22160,7 +22160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -22237,7 +22237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -22308,7 +22308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -22379,7 +22379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -22453,7 +22453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -22503,7 +22503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -22586,7 +22586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -22669,7 +22669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -22891,7 +22891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -22971,7 +22971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -23113,7 +23113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -23187,7 +23187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -23255,7 +23255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -23447,7 +23447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -23574,7 +23574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -23648,7 +23648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -23799,7 +23799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -23923,7 +23923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -23991,7 +23991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -24201,7 +24201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -24275,7 +24275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -24352,7 +24352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -24559,7 +24559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -24627,7 +24627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -24766,7 +24766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -24905,7 +24905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -25331,7 +25331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -25417,7 +25417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -25491,7 +25491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -25565,7 +25565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -25651,7 +25651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -25725,7 +25725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -25802,7 +25802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -25953,7 +25953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -26033,7 +26033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -26104,7 +26104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -26175,7 +26175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -26225,7 +26225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -26364,7 +26364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -26435,7 +26435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -26515,7 +26515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -26580,7 +26580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -26778,7 +26778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -26828,7 +26828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -26878,7 +26878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -26958,7 +26958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -27029,7 +27029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -27109,7 +27109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -27183,7 +27183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -27260,7 +27260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -27346,7 +27346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -27420,7 +27420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -27494,7 +27494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -27574,7 +27574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -27657,7 +27657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -27734,7 +27734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -27817,7 +27817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -27888,7 +27888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -27965,7 +27965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -28178,7 +28178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -28255,7 +28255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -28403,7 +28403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -28640,7 +28640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -28714,7 +28714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -28856,7 +28856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -28933,7 +28933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -29075,7 +29075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -29158,7 +29158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -29303,7 +29303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -29383,7 +29383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -29455,7 +29455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -29591,7 +29591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -29727,7 +29727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -29804,7 +29804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -29881,7 +29881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -29958,7 +29958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -30032,7 +30032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -30112,7 +30112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -30245,7 +30245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -30313,7 +30313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -30378,7 +30378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -30455,7 +30455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -30576,7 +30576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -30656,7 +30656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -30715,7 +30715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -30786,7 +30786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -30949,7 +30949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -31088,7 +31088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -31159,7 +31159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -31233,7 +31233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -31301,7 +31301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -31449,7 +31449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -31517,7 +31517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -31588,7 +31588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -31656,7 +31656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -31727,7 +31727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -31804,7 +31804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -31884,7 +31884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -31961,7 +31961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -32035,7 +32035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -32112,7 +32112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -32272,7 +32272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -32328,7 +32328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -32399,7 +32399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -32467,7 +32467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -32541,7 +32541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -32615,7 +32615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -32775,7 +32775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -32849,7 +32849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -32926,7 +32926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -33000,7 +33000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -33077,7 +33077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -33154,7 +33154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -33231,7 +33231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -33305,7 +33305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -33379,7 +33379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -33456,7 +33456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -33527,7 +33527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -33604,7 +33604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -33681,7 +33681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -33758,7 +33758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -33832,7 +33832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -33903,7 +33903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -34057,7 +34057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -34107,7 +34107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -34181,7 +34181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -34258,7 +34258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -34335,7 +34335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -34412,7 +34412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -34486,7 +34486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -34563,7 +34563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -34640,7 +34640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -34717,7 +34717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -34865,7 +34865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -34942,7 +34942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -35016,7 +35016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -35247,7 +35247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -35324,7 +35324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -35401,7 +35401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -35564,7 +35564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -35955,7 +35955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -36029,7 +36029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -36100,7 +36100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -36150,7 +36150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -36224,7 +36224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -36298,7 +36298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -36375,7 +36375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -36526,7 +36526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -36745,7 +36745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -36810,7 +36810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -36884,7 +36884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -36955,7 +36955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -37076,7 +37076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -37295,7 +37295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -37375,7 +37375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -37526,7 +37526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -37597,7 +37597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -37671,7 +37671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -37754,7 +37754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -37837,7 +37837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -37979,7 +37979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -38050,7 +38050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -38127,7 +38127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -38204,7 +38204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -38278,7 +38278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -38355,7 +38355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -38432,7 +38432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -38509,7 +38509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -38580,7 +38580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -38654,7 +38654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -38725,7 +38725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -38805,7 +38805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -38882,7 +38882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -38959,7 +38959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -39110,7 +39110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -39169,7 +39169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -39237,7 +39237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -39305,7 +39305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -39456,7 +39456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -39524,7 +39524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -39607,7 +39607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -39678,7 +39678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -39749,7 +39749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -39823,7 +39823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -39897,7 +39897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -39977,7 +39977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -40054,7 +40054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -40125,7 +40125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -40202,7 +40202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -40270,7 +40270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -40344,7 +40344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -40421,7 +40421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -40480,7 +40480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -40554,7 +40554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -40628,7 +40628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -40684,7 +40684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -40853,7 +40853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -40927,7 +40927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -41010,7 +41010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -41084,7 +41084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -41318,7 +41318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -41392,7 +41392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -41475,7 +41475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -41552,7 +41552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -41635,7 +41635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -41715,7 +41715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -41792,7 +41792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -41866,7 +41866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -41940,7 +41940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -42023,7 +42023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -42106,7 +42106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -42180,7 +42180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -42260,7 +42260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -42423,7 +42423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -42500,7 +42500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -42577,7 +42577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -42654,7 +42654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -42731,7 +42731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -42808,7 +42808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -42891,7 +42891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -42968,7 +42968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -43045,7 +43045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -43119,7 +43119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -43196,7 +43196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -43273,7 +43273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -43353,7 +43353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -43430,7 +43430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -43510,7 +43510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -43584,7 +43584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -43661,7 +43661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -43741,7 +43741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -43824,7 +43824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -43901,7 +43901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -43975,7 +43975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -44052,7 +44052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -44129,7 +44129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -44206,7 +44206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -44283,7 +44283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -44449,7 +44449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -44526,7 +44526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -44600,7 +44600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -44677,7 +44677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -44748,7 +44748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -44819,7 +44819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -44893,7 +44893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -44976,7 +44976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -45059,7 +45059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -45136,7 +45136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -45213,7 +45213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -45290,7 +45290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -45370,7 +45370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -45447,7 +45447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -45527,7 +45527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -45601,7 +45601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -45681,7 +45681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -45758,7 +45758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -45835,7 +45835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -45912,7 +45912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -45989,7 +45989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -46066,7 +46066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -46143,7 +46143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -46220,7 +46220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -46294,7 +46294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -46451,7 +46451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -46525,7 +46525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -46602,7 +46602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -46679,7 +46679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -46753,7 +46753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -46827,7 +46827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -46904,7 +46904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -46987,7 +46987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -47067,7 +47067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -47141,7 +47141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -47218,7 +47218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -47295,7 +47295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -47369,7 +47369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -47443,7 +47443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -47523,7 +47523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -47606,7 +47606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -47683,7 +47683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -47760,7 +47760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -47834,7 +47834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -47911,7 +47911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -47985,7 +47985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -48062,7 +48062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -48136,7 +48136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -48213,7 +48213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -48290,7 +48290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -48367,7 +48367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -48444,7 +48444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -48521,7 +48521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -48595,7 +48595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -48672,7 +48672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -48749,7 +48749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -48823,7 +48823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -48900,7 +48900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -48977,7 +48977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -49054,7 +49054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -49131,7 +49131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -49208,7 +49208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -49285,7 +49285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -49362,7 +49362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -49445,7 +49445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -49522,7 +49522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -49602,7 +49602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -49765,7 +49765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -49839,7 +49839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -49916,7 +49916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -49990,7 +49990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -50076,7 +50076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -50153,7 +50153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -50224,7 +50224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -50301,7 +50301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -50378,7 +50378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -50455,7 +50455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -50529,7 +50529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -50606,7 +50606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -50680,7 +50680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -50757,7 +50757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -50831,7 +50831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -50908,7 +50908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -50991,7 +50991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -51157,7 +51157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -51240,7 +51240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -51317,7 +51317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -51394,7 +51394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -51471,7 +51471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -51548,7 +51548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -51622,7 +51622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="2">
         <v>499</v>
       </c>
@@ -51699,7 +51699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -51776,7 +51776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -51850,7 +51850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -51924,7 +51924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -51998,7 +51998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -52075,7 +52075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="2">
         <v>505</v>
       </c>
@@ -52149,7 +52149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="2">
         <v>506</v>
       </c>
@@ -52226,7 +52226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -52303,7 +52303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="2">
         <v>508</v>
       </c>
@@ -52380,7 +52380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="2">
         <v>509</v>
       </c>
@@ -52454,7 +52454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -52531,7 +52531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -52608,7 +52608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -52685,7 +52685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -52762,7 +52762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -52839,7 +52839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -52916,7 +52916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -52990,7 +52990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -53067,7 +53067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -53144,7 +53144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -53221,7 +53221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -53298,7 +53298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -53372,7 +53372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -53455,7 +53455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -53529,7 +53529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -53606,7 +53606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -53683,7 +53683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -53757,7 +53757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -53831,7 +53831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -53908,7 +53908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -53982,7 +53982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -54056,7 +54056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -54130,7 +54130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -54210,7 +54210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="2">
         <v>533</v>
       </c>
@@ -54293,7 +54293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="2">
         <v>534</v>
       </c>
@@ -54376,7 +54376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="2">
         <v>535</v>
       </c>
@@ -54453,7 +54453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="2">
         <v>536</v>
       </c>
@@ -54530,7 +54530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="2">
         <v>537</v>
       </c>
@@ -54607,7 +54607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="2">
         <v>538</v>
       </c>
@@ -54684,7 +54684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="2">
         <v>539</v>
       </c>
@@ -54758,7 +54758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="2">
         <v>540</v>
       </c>
@@ -54838,7 +54838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="2">
         <v>541</v>
       </c>
@@ -54915,7 +54915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="2">
         <v>542</v>
       </c>
@@ -54992,7 +54992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="2">
         <v>543</v>
       </c>
@@ -55075,7 +55075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="2">
         <v>544</v>
       </c>
@@ -55152,7 +55152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="2">
         <v>545</v>
       </c>
@@ -55229,7 +55229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="2">
         <v>546</v>
       </c>
@@ -55306,7 +55306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="2">
         <v>547</v>
       </c>
@@ -55380,7 +55380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="2">
         <v>548</v>
       </c>
@@ -55463,7 +55463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="2">
         <v>549</v>
       </c>
@@ -55537,7 +55537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="2">
         <v>550</v>
       </c>
@@ -55611,7 +55611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -55685,7 +55685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -55765,7 +55765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="2">
         <v>553</v>
       </c>
@@ -55848,7 +55848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="2">
         <v>554</v>
       </c>
@@ -55925,7 +55925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="2">
         <v>555</v>
       </c>
@@ -55999,7 +55999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="2">
         <v>556</v>
       </c>
@@ -56156,7 +56156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="2">
         <v>558</v>
       </c>
@@ -56230,7 +56230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="2">
         <v>559</v>
       </c>
@@ -56307,7 +56307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="2">
         <v>560</v>
       </c>
@@ -56384,7 +56384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="2">
         <v>561</v>
       </c>
@@ -56458,7 +56458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="2">
         <v>562</v>
       </c>
@@ -56535,7 +56535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="2">
         <v>563</v>
       </c>
@@ -56609,7 +56609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="2">
         <v>564</v>
       </c>
@@ -56686,7 +56686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="2">
         <v>565</v>
       </c>
@@ -56760,7 +56760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="2">
         <v>566</v>
       </c>
@@ -56834,7 +56834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="2">
         <v>567</v>
       </c>
@@ -56917,7 +56917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="2">
         <v>568</v>
       </c>
@@ -56994,7 +56994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="2">
         <v>569</v>
       </c>
@@ -57065,7 +57065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="2">
         <v>570</v>
       </c>
@@ -57142,7 +57142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="2">
         <v>571</v>
       </c>
@@ -57219,7 +57219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="2">
         <v>572</v>
       </c>
@@ -57293,7 +57293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="2">
         <v>573</v>
       </c>
@@ -57367,7 +57367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="2">
         <v>574</v>
       </c>
@@ -57441,7 +57441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="2">
         <v>575</v>
       </c>
@@ -57515,7 +57515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="2">
         <v>576</v>
       </c>
@@ -57589,7 +57589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="2">
         <v>577</v>
       </c>
@@ -57663,7 +57663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="2">
         <v>578</v>
       </c>
@@ -57740,7 +57740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="2">
         <v>579</v>
       </c>
@@ -57814,7 +57814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="2">
         <v>580</v>
       </c>
@@ -57888,7 +57888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="2">
         <v>581</v>
       </c>
@@ -57962,7 +57962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="2">
         <v>582</v>
       </c>
@@ -58036,7 +58036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="2">
         <v>583</v>
       </c>
@@ -58110,7 +58110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="2">
         <v>584</v>
       </c>
@@ -58187,7 +58187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="2">
         <v>585</v>
       </c>
@@ -58261,7 +58261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="2">
         <v>586</v>
       </c>
@@ -58338,7 +58338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="2">
         <v>587</v>
       </c>
@@ -58412,7 +58412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="2">
         <v>588</v>
       </c>
@@ -58489,7 +58489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="2">
         <v>589</v>
       </c>
@@ -58563,7 +58563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="2">
         <v>590</v>
       </c>
@@ -58637,7 +58637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="2">
         <v>591</v>
       </c>
@@ -58711,7 +58711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="2">
         <v>592</v>
       </c>
@@ -58785,7 +58785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="2">
         <v>593</v>
       </c>
@@ -58862,7 +58862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="2">
         <v>594</v>
       </c>
@@ -58939,7 +58939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="2">
         <v>595</v>
       </c>
@@ -59016,7 +59016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="2">
         <v>596</v>
       </c>
@@ -59093,7 +59093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="2">
         <v>597</v>
       </c>
@@ -59173,7 +59173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="2">
         <v>598</v>
       </c>
@@ -59256,7 +59256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="2">
         <v>599</v>
       </c>
@@ -59333,7 +59333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="2">
         <v>600</v>
       </c>
@@ -59416,7 +59416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="2">
         <v>601</v>
       </c>
@@ -59496,7 +59496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="2">
         <v>602</v>
       </c>
@@ -59570,7 +59570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="2">
         <v>603</v>
       </c>
@@ -59647,7 +59647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="2">
         <v>604</v>
       </c>
@@ -59810,7 +59810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="2">
         <v>606</v>
       </c>
@@ -59887,7 +59887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="2">
         <v>607</v>
       </c>
@@ -59967,7 +59967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="2">
         <v>608</v>
       </c>
@@ -60050,7 +60050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="2">
         <v>609</v>
       </c>
@@ -60127,7 +60127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="2">
         <v>610</v>
       </c>
@@ -60204,7 +60204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="2">
         <v>611</v>
       </c>
@@ -60278,7 +60278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="2">
         <v>612</v>
       </c>
@@ -60355,7 +60355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="2">
         <v>613</v>
       </c>
@@ -60432,7 +60432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="2">
         <v>614</v>
       </c>
@@ -60509,7 +60509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="2">
         <v>615</v>
       </c>
@@ -60592,7 +60592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="2">
         <v>616</v>
       </c>
@@ -60669,7 +60669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="2">
         <v>617</v>
       </c>
@@ -60746,7 +60746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="2">
         <v>618</v>
       </c>
@@ -60823,7 +60823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="2">
         <v>619</v>
       </c>
@@ -60900,7 +60900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="2">
         <v>620</v>
       </c>
@@ -60974,7 +60974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="2">
         <v>621</v>
       </c>
@@ -61054,7 +61054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="2">
         <v>622</v>
       </c>
@@ -61128,7 +61128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="2">
         <v>623</v>
       </c>
@@ -61208,7 +61208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="2">
         <v>624</v>
       </c>
@@ -61282,7 +61282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="2">
         <v>625</v>
       </c>
@@ -61359,7 +61359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="2">
         <v>626</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="2">
         <v>627</v>
       </c>
@@ -61510,7 +61510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="2">
         <v>628</v>
       </c>
@@ -61584,7 +61584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="2">
         <v>629</v>
       </c>
@@ -61661,7 +61661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="2">
         <v>630</v>
       </c>
@@ -61738,7 +61738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="2">
         <v>631</v>
       </c>
@@ -61815,7 +61815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="2">
         <v>632</v>
       </c>
@@ -61889,7 +61889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="2">
         <v>633</v>
       </c>
@@ -61972,7 +61972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="2">
         <v>634</v>
       </c>
@@ -62049,7 +62049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="2">
         <v>635</v>
       </c>
@@ -62132,7 +62132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="2">
         <v>636</v>
       </c>
@@ -62209,7 +62209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="2">
         <v>637</v>
       </c>
@@ -62280,7 +62280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="2">
         <v>638</v>
       </c>
@@ -62354,7 +62354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="2">
         <v>639</v>
       </c>
@@ -62434,7 +62434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="2">
         <v>640</v>
       </c>
@@ -62511,7 +62511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="2">
         <v>641</v>
       </c>
@@ -62585,7 +62585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="2">
         <v>642</v>
       </c>
@@ -62659,7 +62659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="2">
         <v>643</v>
       </c>
@@ -62733,7 +62733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="2">
         <v>644</v>
       </c>
@@ -62810,7 +62810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="2">
         <v>645</v>
       </c>
@@ -62887,7 +62887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="2">
         <v>646</v>
       </c>
@@ -62964,7 +62964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="2">
         <v>647</v>
       </c>
@@ -63041,7 +63041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="2">
         <v>648</v>
       </c>
@@ -63118,7 +63118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="2">
         <v>649</v>
       </c>
@@ -63195,7 +63195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="2">
         <v>650</v>
       </c>
@@ -63269,7 +63269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="2">
         <v>651</v>
       </c>
@@ -63349,7 +63349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="2">
         <v>652</v>
       </c>
@@ -63423,7 +63423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="2">
         <v>653</v>
       </c>
@@ -63497,7 +63497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="2">
         <v>654</v>
       </c>
@@ -63574,7 +63574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="2">
         <v>655</v>
       </c>
@@ -63657,7 +63657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="2">
         <v>656</v>
       </c>
@@ -63734,7 +63734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="2">
         <v>657</v>
       </c>
@@ -63808,7 +63808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="2">
         <v>658</v>
       </c>
@@ -63885,7 +63885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="2">
         <v>659</v>
       </c>
@@ -63965,7 +63965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="2">
         <v>660</v>
       </c>
@@ -64042,7 +64042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="2">
         <v>661</v>
       </c>
@@ -64119,7 +64119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="2">
         <v>662</v>
       </c>
@@ -64196,7 +64196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="2">
         <v>663</v>
       </c>
@@ -64273,7 +64273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="2">
         <v>664</v>
       </c>
@@ -64347,7 +64347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="2">
         <v>665</v>
       </c>
@@ -64424,7 +64424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="2">
         <v>666</v>
       </c>
@@ -64501,7 +64501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="2">
         <v>667</v>
       </c>
@@ -64578,7 +64578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="2">
         <v>668</v>
       </c>
@@ -64655,7 +64655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="2">
         <v>669</v>
       </c>
@@ -64729,7 +64729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="2">
         <v>670</v>
       </c>
@@ -64806,7 +64806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="2">
         <v>671</v>
       </c>
@@ -64883,7 +64883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="2">
         <v>672</v>
       </c>
@@ -65043,7 +65043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="2">
         <v>674</v>
       </c>
@@ -65126,7 +65126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="2">
         <v>675</v>
       </c>
@@ -65203,7 +65203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="2">
         <v>676</v>
       </c>
@@ -65280,7 +65280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="2">
         <v>677</v>
       </c>
@@ -65354,7 +65354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="2">
         <v>678</v>
       </c>
@@ -65431,7 +65431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="2">
         <v>679</v>
       </c>
@@ -65508,7 +65508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="2">
         <v>680</v>
       </c>
@@ -65591,7 +65591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="2">
         <v>681</v>
       </c>
@@ -65665,7 +65665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="2">
         <v>682</v>
       </c>
@@ -65739,7 +65739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="2">
         <v>683</v>
       </c>
@@ -65804,7 +65804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="2">
         <v>684</v>
       </c>
@@ -65878,7 +65878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="2">
         <v>685</v>
       </c>
@@ -65940,7 +65940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="2">
         <v>686</v>
       </c>
@@ -66005,7 +66005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="2">
         <v>687</v>
       </c>
@@ -66082,7 +66082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="2">
         <v>688</v>
       </c>
@@ -66153,7 +66153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="2">
         <v>689</v>
       </c>
@@ -66230,7 +66230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="2">
         <v>690</v>
       </c>
@@ -66307,7 +66307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="2">
         <v>691</v>
       </c>
@@ -66384,7 +66384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="2">
         <v>692</v>
       </c>
@@ -66464,7 +66464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="2">
         <v>693</v>
       </c>
@@ -66627,7 +66627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="2">
         <v>695</v>
       </c>
@@ -66704,7 +66704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="2">
         <v>696</v>
       </c>
@@ -66781,7 +66781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="2">
         <v>697</v>
       </c>
@@ -66929,7 +66929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="2">
         <v>699</v>
       </c>
@@ -67015,7 +67015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="2">
         <v>700</v>
       </c>
@@ -67101,7 +67101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="2">
         <v>701</v>
       </c>
@@ -67175,7 +67175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="2">
         <v>702</v>
       </c>
@@ -67252,7 +67252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="2">
         <v>703</v>
       </c>
@@ -67329,7 +67329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="2">
         <v>704</v>
       </c>
@@ -67406,7 +67406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="2">
         <v>705</v>
       </c>
@@ -67483,7 +67483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="2">
         <v>706</v>
       </c>
@@ -67557,7 +67557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="2">
         <v>707</v>
       </c>
@@ -67720,7 +67720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="2">
         <v>709</v>
       </c>
@@ -67978,7 +67978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="2">
         <v>712</v>
       </c>
@@ -68061,7 +68061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="2">
         <v>713</v>
       </c>
@@ -68135,7 +68135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="2">
         <v>714</v>
       </c>
@@ -68206,7 +68206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="2">
         <v>715</v>
       </c>
@@ -68277,7 +68277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="2">
         <v>716</v>
       </c>
@@ -68425,7 +68425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="2">
         <v>718</v>
       </c>
@@ -68502,7 +68502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="2">
         <v>719</v>
       </c>
@@ -68579,7 +68579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="2">
         <v>720</v>
       </c>
@@ -68656,7 +68656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="2">
         <v>721</v>
       </c>
@@ -68736,7 +68736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="2">
         <v>722</v>
       </c>
@@ -68899,7 +68899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="2">
         <v>724</v>
       </c>
@@ -68985,7 +68985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="2">
         <v>725</v>
       </c>
@@ -69062,7 +69062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="2">
         <v>726</v>
       </c>
@@ -69130,7 +69130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="2">
         <v>727</v>
       </c>
@@ -69207,7 +69207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="2">
         <v>728</v>
       </c>
@@ -69284,7 +69284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="2">
         <v>729</v>
       </c>
@@ -69367,7 +69367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="2">
         <v>730</v>
       </c>
@@ -69444,7 +69444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="2">
         <v>731</v>
       </c>
@@ -69521,7 +69521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="2">
         <v>732</v>
       </c>
@@ -69607,7 +69607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="2">
         <v>733</v>
       </c>
@@ -69684,7 +69684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="2">
         <v>734</v>
       </c>
@@ -69761,7 +69761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="2">
         <v>735</v>
       </c>
@@ -69823,7 +69823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="2">
         <v>736</v>
       </c>
@@ -69900,7 +69900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="2">
         <v>737</v>
       </c>
@@ -69983,7 +69983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="2">
         <v>738</v>
       </c>
@@ -70060,7 +70060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="2">
         <v>739</v>
       </c>
@@ -70223,7 +70223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="2">
         <v>741</v>
       </c>
@@ -70389,7 +70389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="2">
         <v>743</v>
       </c>
@@ -70475,7 +70475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="2">
         <v>744</v>
       </c>
@@ -70543,7 +70543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A746" s="2">
         <v>745</v>
       </c>
@@ -70620,7 +70620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A747" s="2">
         <v>746</v>
       </c>
@@ -70697,7 +70697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A748" s="2">
         <v>747</v>
       </c>
@@ -70774,7 +70774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A749" s="2">
         <v>748</v>
       </c>
@@ -70845,7 +70845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A750" s="2">
         <v>749</v>
       </c>
@@ -70916,7 +70916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="2">
         <v>750</v>
       </c>
@@ -70987,7 +70987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="2">
         <v>751</v>
       </c>
@@ -71144,7 +71144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="2">
         <v>753</v>
       </c>
@@ -71221,7 +71221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="2">
         <v>754</v>
       </c>
@@ -71286,7 +71286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="2">
         <v>755</v>
       </c>
@@ -71363,7 +71363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="2">
         <v>756</v>
       </c>
@@ -71446,7 +71446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="2">
         <v>757</v>
       </c>
@@ -71523,7 +71523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="2">
         <v>758</v>
       </c>
@@ -71600,7 +71600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="2">
         <v>759</v>
       </c>
@@ -71677,7 +71677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="2">
         <v>760</v>
       </c>
@@ -71754,7 +71754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="2">
         <v>761</v>
       </c>
@@ -71831,7 +71831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="2">
         <v>762</v>
       </c>
@@ -71908,7 +71908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="2">
         <v>763</v>
       </c>
@@ -71985,7 +71985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="2">
         <v>764</v>
       </c>
@@ -72062,7 +72062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="2">
         <v>765</v>
       </c>
@@ -72139,7 +72139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="2">
         <v>766</v>
       </c>
@@ -72216,7 +72216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="2">
         <v>767</v>
       </c>
@@ -72299,7 +72299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="2">
         <v>768</v>
       </c>
@@ -72376,7 +72376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="2">
         <v>769</v>
       </c>
@@ -72453,7 +72453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="2">
         <v>770</v>
       </c>
@@ -72524,7 +72524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="2">
         <v>771</v>
       </c>
@@ -72607,7 +72607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A773" s="2">
         <v>772</v>
       </c>
@@ -72687,7 +72687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A774" s="2">
         <v>773</v>
       </c>
@@ -72761,7 +72761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A775" s="2">
         <v>774</v>
       </c>
@@ -72835,7 +72835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A776" s="2">
         <v>775</v>
       </c>
@@ -72906,7 +72906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A777" s="2">
         <v>776</v>
       </c>
@@ -72977,7 +72977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A778" s="2">
         <v>777</v>
       </c>
@@ -73051,7 +73051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A779" s="2">
         <v>778</v>
       </c>
@@ -73122,7 +73122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A780" s="2">
         <v>779</v>
       </c>
@@ -73193,7 +73193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A781" s="2">
         <v>780</v>
       </c>
@@ -73268,7 +73268,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AO781" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:AO781" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="20">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="25">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/src/a_place_for_salvador_allende_investigation.xlsx
+++ b/src/a_place_for_salvador_allende_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoGro\Desktop\Repos\a-place-for-salvador-allende\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB9D761-7098-4E07-BBFC-5072E6727B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66748538-3D90-4DAB-BC3F-115243EE4297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14199,16 +14199,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AO781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N742" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A712" sqref="A712"/>
+      <selection pane="bottomRight" activeCell="Y745" sqref="Y745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14329,7 +14329,7 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -14422,7 +14422,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
     </row>
-    <row r="3" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -14515,7 +14515,7 @@
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
     </row>
-    <row r="4" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -14596,7 +14596,7 @@
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
     </row>
-    <row r="5" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -14683,7 +14683,7 @@
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
     </row>
-    <row r="6" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -14772,7 +14772,7 @@
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
     </row>
-    <row r="7" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -14863,7 +14863,7 @@
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
     </row>
-    <row r="8" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -14950,7 +14950,7 @@
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
     </row>
-    <row r="9" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -15039,7 +15039,7 @@
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
     </row>
-    <row r="10" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -15128,7 +15128,7 @@
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -15219,7 +15219,7 @@
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
     </row>
-    <row r="12" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -15310,7 +15310,7 @@
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
     </row>
-    <row r="13" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -15395,7 +15395,7 @@
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
     </row>
-    <row r="14" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -15486,7 +15486,7 @@
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
     </row>
-    <row r="15" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -15573,7 +15573,7 @@
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
     </row>
-    <row r="16" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -15662,7 +15662,7 @@
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
     </row>
-    <row r="17" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -15745,7 +15745,7 @@
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
     </row>
-    <row r="18" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -15832,7 +15832,7 @@
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
     </row>
-    <row r="19" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -15925,7 +15925,7 @@
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
     </row>
-    <row r="20" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -16014,7 +16014,7 @@
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -16105,7 +16105,7 @@
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
     </row>
-    <row r="22" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -16200,7 +16200,7 @@
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
     </row>
-    <row r="23" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -16297,7 +16297,7 @@
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
     </row>
-    <row r="24" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -16388,7 +16388,7 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
     </row>
-    <row r="25" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -16561,7 +16561,7 @@
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
     </row>
-    <row r="27" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -16646,7 +16646,7 @@
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
     </row>
-    <row r="28" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -16737,7 +16737,7 @@
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
     </row>
-    <row r="29" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -16832,7 +16832,7 @@
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
     </row>
-    <row r="30" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -17921,7 +17921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -18888,7 +18888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -19104,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -19175,7 +19175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -19234,7 +19234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -19296,7 +19296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -19571,7 +19571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -19704,7 +19704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -19840,7 +19840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -19914,7 +19914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -20047,7 +20047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -20313,7 +20313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -20659,7 +20659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -20721,7 +20721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -20890,7 +20890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -21121,7 +21121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -21195,7 +21195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -21275,7 +21275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -21426,7 +21426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -21500,7 +21500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -21577,7 +21577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -21648,7 +21648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -21799,7 +21799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -22089,7 +22089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -22160,7 +22160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -22237,7 +22237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -22308,7 +22308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -22379,7 +22379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -22453,7 +22453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -22503,7 +22503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -22586,7 +22586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -22669,7 +22669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -22891,7 +22891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -22971,7 +22971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -23113,7 +23113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -23187,7 +23187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -23255,7 +23255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -23447,7 +23447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -23574,7 +23574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -23648,7 +23648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -23799,7 +23799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -23923,7 +23923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -23991,7 +23991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -24201,7 +24201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -24275,7 +24275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -24352,7 +24352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -24559,7 +24559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -24627,7 +24627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -24766,7 +24766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -24905,7 +24905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -25331,7 +25331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -25417,7 +25417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -25491,7 +25491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -25565,7 +25565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -25651,7 +25651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -25725,7 +25725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -25802,7 +25802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -25953,7 +25953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -26033,7 +26033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -26104,7 +26104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -26175,7 +26175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -26225,7 +26225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -26364,7 +26364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -26435,7 +26435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -26515,7 +26515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -26580,7 +26580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -26778,7 +26778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -26828,7 +26828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -26878,7 +26878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -26958,7 +26958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -27029,7 +27029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -27109,7 +27109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -27183,7 +27183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -27260,7 +27260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -27346,7 +27346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -27420,7 +27420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -27494,7 +27494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -27574,7 +27574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -27657,7 +27657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -27734,7 +27734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -27817,7 +27817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -27888,7 +27888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -27965,7 +27965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -28178,7 +28178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -28255,7 +28255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -28403,7 +28403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -28640,7 +28640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -28714,7 +28714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -28856,7 +28856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -28933,7 +28933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -29075,7 +29075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -29158,7 +29158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -29303,7 +29303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -29383,7 +29383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -29455,7 +29455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -29591,7 +29591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -29727,7 +29727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -29804,7 +29804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -29881,7 +29881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -29958,7 +29958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -30032,7 +30032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -30112,7 +30112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -30245,7 +30245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -30313,7 +30313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -30378,7 +30378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -30455,7 +30455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -30576,7 +30576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -30656,7 +30656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -30715,7 +30715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -30786,7 +30786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -30949,7 +30949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -31088,7 +31088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -31159,7 +31159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -31233,7 +31233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -31301,7 +31301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -31449,7 +31449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -31517,7 +31517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -31588,7 +31588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -31656,7 +31656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -31727,7 +31727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -31804,7 +31804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -31884,7 +31884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -31961,7 +31961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -32035,7 +32035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -32112,7 +32112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -32272,7 +32272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -32328,7 +32328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -32399,7 +32399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -32467,7 +32467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -32541,7 +32541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -32615,7 +32615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -32775,7 +32775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -32849,7 +32849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -32926,7 +32926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -33000,7 +33000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -33077,7 +33077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -33154,7 +33154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -33231,7 +33231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -33305,7 +33305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -33379,7 +33379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -33456,7 +33456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -33527,7 +33527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -33604,7 +33604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -33681,7 +33681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -33758,7 +33758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -33832,7 +33832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -33903,7 +33903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -34057,7 +34057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -34107,7 +34107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -34181,7 +34181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -34258,7 +34258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -34335,7 +34335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -34412,7 +34412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -34486,7 +34486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -34563,7 +34563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -34640,7 +34640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -34717,7 +34717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -34865,7 +34865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -34942,7 +34942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -35016,7 +35016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -35247,7 +35247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -35324,7 +35324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -35401,7 +35401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -35564,7 +35564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -35955,7 +35955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -36029,7 +36029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -36100,7 +36100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -36150,7 +36150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -36224,7 +36224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -36298,7 +36298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -36375,7 +36375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -36526,7 +36526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -36745,7 +36745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -36810,7 +36810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -36884,7 +36884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -36955,7 +36955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -37076,7 +37076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -37295,7 +37295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -37375,7 +37375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -37526,7 +37526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -37597,7 +37597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -37671,7 +37671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -37754,7 +37754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -37837,7 +37837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -37979,7 +37979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -38050,7 +38050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -38127,7 +38127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -38204,7 +38204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -38278,7 +38278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -38355,7 +38355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -38432,7 +38432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -38509,7 +38509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -38580,7 +38580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -38654,7 +38654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -38725,7 +38725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -38805,7 +38805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -38882,7 +38882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -38959,7 +38959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -39110,7 +39110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -39169,7 +39169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -39237,7 +39237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -39305,7 +39305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -39456,7 +39456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -39524,7 +39524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -39607,7 +39607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -39678,7 +39678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -39749,7 +39749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -39823,7 +39823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -39897,7 +39897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -39977,7 +39977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -40054,7 +40054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -40125,7 +40125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -40202,7 +40202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -40270,7 +40270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -40344,7 +40344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -40421,7 +40421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -40480,7 +40480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -40554,7 +40554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -40628,7 +40628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -40684,7 +40684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -40853,7 +40853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -40927,7 +40927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -41010,7 +41010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -41084,7 +41084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -41318,7 +41318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -41392,7 +41392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -41475,7 +41475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -41552,7 +41552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -41635,7 +41635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -41715,7 +41715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -41792,7 +41792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -41866,7 +41866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -41940,7 +41940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -42023,7 +42023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -42106,7 +42106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -42180,7 +42180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -42260,7 +42260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -42423,7 +42423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -42500,7 +42500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -42577,7 +42577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -42654,7 +42654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -42731,7 +42731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -42808,7 +42808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -42891,7 +42891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -42968,7 +42968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -43045,7 +43045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -43119,7 +43119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -43196,7 +43196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -43273,7 +43273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -43353,7 +43353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -43430,7 +43430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -43510,7 +43510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -43584,7 +43584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -43661,7 +43661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -43741,7 +43741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -43824,7 +43824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -43901,7 +43901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -43975,7 +43975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -44052,7 +44052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -44129,7 +44129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -44206,7 +44206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -44283,7 +44283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -44449,7 +44449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -44526,7 +44526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -44600,7 +44600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -44677,7 +44677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -44748,7 +44748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -44819,7 +44819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -44893,7 +44893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -44976,7 +44976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -45059,7 +45059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -45136,7 +45136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -45213,7 +45213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -45290,7 +45290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -45370,7 +45370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -45447,7 +45447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -45527,7 +45527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -45601,7 +45601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -45681,7 +45681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -45758,7 +45758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -45835,7 +45835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -45912,7 +45912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -45989,7 +45989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -46066,7 +46066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -46143,7 +46143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -46220,7 +46220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -46294,7 +46294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -46451,7 +46451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -46525,7 +46525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -46602,7 +46602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -46679,7 +46679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -46753,7 +46753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -46827,7 +46827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -46904,7 +46904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -46987,7 +46987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -47067,7 +47067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -47141,7 +47141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -47218,7 +47218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -47295,7 +47295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -47369,7 +47369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -47443,7 +47443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -47523,7 +47523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -47606,7 +47606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -47683,7 +47683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -47760,7 +47760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -47834,7 +47834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -47911,7 +47911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -47985,7 +47985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -48062,7 +48062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -48136,7 +48136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -48213,7 +48213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -48290,7 +48290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -48367,7 +48367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -48444,7 +48444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -48521,7 +48521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -48595,7 +48595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -48672,7 +48672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -48749,7 +48749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -48823,7 +48823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -48900,7 +48900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -48977,7 +48977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -49054,7 +49054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -49131,7 +49131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -49208,7 +49208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -49285,7 +49285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -49362,7 +49362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -49445,7 +49445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -49522,7 +49522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -49602,7 +49602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -49765,7 +49765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -49839,7 +49839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -49916,7 +49916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -49990,7 +49990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -50076,7 +50076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -50153,7 +50153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -50224,7 +50224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -50301,7 +50301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -50378,7 +50378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -50455,7 +50455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -50529,7 +50529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -50606,7 +50606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -50680,7 +50680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -50757,7 +50757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -50831,7 +50831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -50908,7 +50908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -50991,7 +50991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -51157,7 +51157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -51240,7 +51240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -51317,7 +51317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -51394,7 +51394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -51471,7 +51471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -51548,7 +51548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -51622,7 +51622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="2">
         <v>499</v>
       </c>
@@ -51699,7 +51699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -51776,7 +51776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -51850,7 +51850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -51924,7 +51924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -51998,7 +51998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -52075,7 +52075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="2">
         <v>505</v>
       </c>
@@ -52149,7 +52149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="2">
         <v>506</v>
       </c>
@@ -52226,7 +52226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -52303,7 +52303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="2">
         <v>508</v>
       </c>
@@ -52380,7 +52380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="2">
         <v>509</v>
       </c>
@@ -52454,7 +52454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -52531,7 +52531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -52608,7 +52608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -52685,7 +52685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -52762,7 +52762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -52839,7 +52839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -52916,7 +52916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -52990,7 +52990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -53067,7 +53067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -53144,7 +53144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -53221,7 +53221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -53298,7 +53298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -53372,7 +53372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -53455,7 +53455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -53529,7 +53529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -53606,7 +53606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -53683,7 +53683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -53757,7 +53757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -53831,7 +53831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -53908,7 +53908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -53982,7 +53982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -54056,7 +54056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -54130,7 +54130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -54210,7 +54210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="2">
         <v>533</v>
       </c>
@@ -54293,7 +54293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="2">
         <v>534</v>
       </c>
@@ -54376,7 +54376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="2">
         <v>535</v>
       </c>
@@ -54453,7 +54453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="2">
         <v>536</v>
       </c>
@@ -54530,7 +54530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="2">
         <v>537</v>
       </c>
@@ -54607,7 +54607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="2">
         <v>538</v>
       </c>
@@ -54684,7 +54684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="2">
         <v>539</v>
       </c>
@@ -54758,7 +54758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="2">
         <v>540</v>
       </c>
@@ -54838,7 +54838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="2">
         <v>541</v>
       </c>
@@ -54915,7 +54915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="2">
         <v>542</v>
       </c>
@@ -54992,7 +54992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="2">
         <v>543</v>
       </c>
@@ -55075,7 +55075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="2">
         <v>544</v>
       </c>
@@ -55152,7 +55152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="2">
         <v>545</v>
       </c>
@@ -55229,7 +55229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="2">
         <v>546</v>
       </c>
@@ -55306,7 +55306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="2">
         <v>547</v>
       </c>
@@ -55380,7 +55380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="2">
         <v>548</v>
       </c>
@@ -55463,7 +55463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="2">
         <v>549</v>
       </c>
@@ -55537,7 +55537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="2">
         <v>550</v>
       </c>
@@ -55611,7 +55611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -55685,7 +55685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -55765,7 +55765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="2">
         <v>553</v>
       </c>
@@ -55848,7 +55848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="2">
         <v>554</v>
       </c>
@@ -55925,7 +55925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="2">
         <v>555</v>
       </c>
@@ -55999,7 +55999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="2">
         <v>556</v>
       </c>
@@ -56156,7 +56156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="2">
         <v>558</v>
       </c>
@@ -56230,7 +56230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="2">
         <v>559</v>
       </c>
@@ -56307,7 +56307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="2">
         <v>560</v>
       </c>
@@ -56384,7 +56384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="2">
         <v>561</v>
       </c>
@@ -56458,7 +56458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="2">
         <v>562</v>
       </c>
@@ -56535,7 +56535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="2">
         <v>563</v>
       </c>
@@ -56609,7 +56609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="2">
         <v>564</v>
       </c>
@@ -56686,7 +56686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="2">
         <v>565</v>
       </c>
@@ -56760,7 +56760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="2">
         <v>566</v>
       </c>
@@ -56834,7 +56834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="2">
         <v>567</v>
       </c>
@@ -56917,7 +56917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="2">
         <v>568</v>
       </c>
@@ -56994,7 +56994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="2">
         <v>569</v>
       </c>
@@ -57065,7 +57065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="2">
         <v>570</v>
       </c>
@@ -57142,7 +57142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="2">
         <v>571</v>
       </c>
@@ -57219,7 +57219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="2">
         <v>572</v>
       </c>
@@ -57293,7 +57293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="2">
         <v>573</v>
       </c>
@@ -57367,7 +57367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="2">
         <v>574</v>
       </c>
@@ -57441,7 +57441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="2">
         <v>575</v>
       </c>
@@ -57515,7 +57515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="2">
         <v>576</v>
       </c>
@@ -57589,7 +57589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="2">
         <v>577</v>
       </c>
@@ -57663,7 +57663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="2">
         <v>578</v>
       </c>
@@ -57740,7 +57740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="2">
         <v>579</v>
       </c>
@@ -57814,7 +57814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="2">
         <v>580</v>
       </c>
@@ -57888,7 +57888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="2">
         <v>581</v>
       </c>
@@ -57962,7 +57962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="2">
         <v>582</v>
       </c>
@@ -58036,7 +58036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="2">
         <v>583</v>
       </c>
@@ -58110,7 +58110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="2">
         <v>584</v>
       </c>
@@ -58187,7 +58187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="2">
         <v>585</v>
       </c>
@@ -58261,7 +58261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="2">
         <v>586</v>
       </c>
@@ -58338,7 +58338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="2">
         <v>587</v>
       </c>
@@ -58412,7 +58412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="2">
         <v>588</v>
       </c>
@@ -58489,7 +58489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="2">
         <v>589</v>
       </c>
@@ -58563,7 +58563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="2">
         <v>590</v>
       </c>
@@ -58637,7 +58637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="2">
         <v>591</v>
       </c>
@@ -58711,7 +58711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="2">
         <v>592</v>
       </c>
@@ -58785,7 +58785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="2">
         <v>593</v>
       </c>
@@ -58862,7 +58862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="2">
         <v>594</v>
       </c>
@@ -58939,7 +58939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="2">
         <v>595</v>
       </c>
@@ -59016,7 +59016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="2">
         <v>596</v>
       </c>
@@ -59093,7 +59093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="2">
         <v>597</v>
       </c>
@@ -59173,7 +59173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="2">
         <v>598</v>
       </c>
@@ -59256,7 +59256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="2">
         <v>599</v>
       </c>
@@ -59333,7 +59333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="2">
         <v>600</v>
       </c>
@@ -59416,7 +59416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="2">
         <v>601</v>
       </c>
@@ -59496,7 +59496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="2">
         <v>602</v>
       </c>
@@ -59570,7 +59570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="2">
         <v>603</v>
       </c>
@@ -59647,7 +59647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="2">
         <v>604</v>
       </c>
@@ -59810,7 +59810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="2">
         <v>606</v>
       </c>
@@ -59887,7 +59887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="2">
         <v>607</v>
       </c>
@@ -59967,7 +59967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="2">
         <v>608</v>
       </c>
@@ -60050,7 +60050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="2">
         <v>609</v>
       </c>
@@ -60127,7 +60127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="2">
         <v>610</v>
       </c>
@@ -60204,7 +60204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="2">
         <v>611</v>
       </c>
@@ -60278,7 +60278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="2">
         <v>612</v>
       </c>
@@ -60355,7 +60355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="2">
         <v>613</v>
       </c>
@@ -60432,7 +60432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="2">
         <v>614</v>
       </c>
@@ -60509,7 +60509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="2">
         <v>615</v>
       </c>
@@ -60592,7 +60592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="2">
         <v>616</v>
       </c>
@@ -60669,7 +60669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="2">
         <v>617</v>
       </c>
@@ -60746,7 +60746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="2">
         <v>618</v>
       </c>
@@ -60823,7 +60823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="2">
         <v>619</v>
       </c>
@@ -60900,7 +60900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="2">
         <v>620</v>
       </c>
@@ -60974,7 +60974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="2">
         <v>621</v>
       </c>
@@ -61054,7 +61054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="2">
         <v>622</v>
       </c>
@@ -61128,7 +61128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="2">
         <v>623</v>
       </c>
@@ -61208,7 +61208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="2">
         <v>624</v>
       </c>
@@ -61282,7 +61282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="2">
         <v>625</v>
       </c>
@@ -61359,7 +61359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="2">
         <v>626</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="2">
         <v>627</v>
       </c>
@@ -61510,7 +61510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="2">
         <v>628</v>
       </c>
@@ -61584,7 +61584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="2">
         <v>629</v>
       </c>
@@ -61661,7 +61661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="2">
         <v>630</v>
       </c>
@@ -61738,7 +61738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="2">
         <v>631</v>
       </c>
@@ -61815,7 +61815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="2">
         <v>632</v>
       </c>
@@ -61889,7 +61889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="2">
         <v>633</v>
       </c>
@@ -61972,7 +61972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="2">
         <v>634</v>
       </c>
@@ -62049,7 +62049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="2">
         <v>635</v>
       </c>
@@ -62132,7 +62132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="2">
         <v>636</v>
       </c>
@@ -62209,7 +62209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="2">
         <v>637</v>
       </c>
@@ -62280,7 +62280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="2">
         <v>638</v>
       </c>
@@ -62354,7 +62354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="2">
         <v>639</v>
       </c>
@@ -62434,7 +62434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="2">
         <v>640</v>
       </c>
@@ -62511,7 +62511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="2">
         <v>641</v>
       </c>
@@ -62585,7 +62585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="2">
         <v>642</v>
       </c>
@@ -62659,7 +62659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="2">
         <v>643</v>
       </c>
@@ -62733,7 +62733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="2">
         <v>644</v>
       </c>
@@ -62810,7 +62810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="2">
         <v>645</v>
       </c>
@@ -62887,7 +62887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="2">
         <v>646</v>
       </c>
@@ -62964,7 +62964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="2">
         <v>647</v>
       </c>
@@ -63041,7 +63041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="2">
         <v>648</v>
       </c>
@@ -63118,7 +63118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="2">
         <v>649</v>
       </c>
@@ -63195,7 +63195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="2">
         <v>650</v>
       </c>
@@ -63269,7 +63269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="2">
         <v>651</v>
       </c>
@@ -63349,7 +63349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="2">
         <v>652</v>
       </c>
@@ -63423,7 +63423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="2">
         <v>653</v>
       </c>
@@ -63497,7 +63497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="2">
         <v>654</v>
       </c>
@@ -63574,7 +63574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="2">
         <v>655</v>
       </c>
@@ -63657,7 +63657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="2">
         <v>656</v>
       </c>
@@ -63734,7 +63734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="2">
         <v>657</v>
       </c>
@@ -63808,7 +63808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="2">
         <v>658</v>
       </c>
@@ -63885,7 +63885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="2">
         <v>659</v>
       </c>
@@ -63965,7 +63965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="2">
         <v>660</v>
       </c>
@@ -64042,7 +64042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="2">
         <v>661</v>
       </c>
@@ -64119,7 +64119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="2">
         <v>662</v>
       </c>
@@ -64196,7 +64196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="2">
         <v>663</v>
       </c>
@@ -64273,7 +64273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="2">
         <v>664</v>
       </c>
@@ -64347,7 +64347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="2">
         <v>665</v>
       </c>
@@ -64424,7 +64424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="2">
         <v>666</v>
       </c>
@@ -64501,7 +64501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="2">
         <v>667</v>
       </c>
@@ -64578,7 +64578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="2">
         <v>668</v>
       </c>
@@ -64655,7 +64655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="2">
         <v>669</v>
       </c>
@@ -64729,7 +64729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="2">
         <v>670</v>
       </c>
@@ -64806,7 +64806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="2">
         <v>671</v>
       </c>
@@ -64883,7 +64883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="2">
         <v>672</v>
       </c>
@@ -65043,7 +65043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="2">
         <v>674</v>
       </c>
@@ -65126,7 +65126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="2">
         <v>675</v>
       </c>
@@ -65203,7 +65203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="2">
         <v>676</v>
       </c>
@@ -65280,7 +65280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="2">
         <v>677</v>
       </c>
@@ -65354,7 +65354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="2">
         <v>678</v>
       </c>
@@ -65431,7 +65431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="2">
         <v>679</v>
       </c>
@@ -65508,7 +65508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="2">
         <v>680</v>
       </c>
@@ -65591,7 +65591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="2">
         <v>681</v>
       </c>
@@ -65665,7 +65665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="2">
         <v>682</v>
       </c>
@@ -65739,7 +65739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="2">
         <v>683</v>
       </c>
@@ -65804,7 +65804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="2">
         <v>684</v>
       </c>
@@ -65878,7 +65878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="2">
         <v>685</v>
       </c>
@@ -65940,7 +65940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="2">
         <v>686</v>
       </c>
@@ -66005,7 +66005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="2">
         <v>687</v>
       </c>
@@ -66082,7 +66082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="2">
         <v>688</v>
       </c>
@@ -66153,7 +66153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="2">
         <v>689</v>
       </c>
@@ -66230,7 +66230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="2">
         <v>690</v>
       </c>
@@ -66307,7 +66307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="2">
         <v>691</v>
       </c>
@@ -66384,7 +66384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="2">
         <v>692</v>
       </c>
@@ -66464,7 +66464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="2">
         <v>693</v>
       </c>
@@ -66627,7 +66627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="2">
         <v>695</v>
       </c>
@@ -66704,7 +66704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="2">
         <v>696</v>
       </c>
@@ -66781,7 +66781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="2">
         <v>697</v>
       </c>
@@ -66929,7 +66929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="2">
         <v>699</v>
       </c>
@@ -67015,7 +67015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="2">
         <v>700</v>
       </c>
@@ -67101,7 +67101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="2">
         <v>701</v>
       </c>
@@ -67175,7 +67175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="2">
         <v>702</v>
       </c>
@@ -67252,7 +67252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="2">
         <v>703</v>
       </c>
@@ -67329,7 +67329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="2">
         <v>704</v>
       </c>
@@ -67406,7 +67406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="2">
         <v>705</v>
       </c>
@@ -67483,7 +67483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="2">
         <v>706</v>
       </c>
@@ -67557,7 +67557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="2">
         <v>707</v>
       </c>
@@ -67720,7 +67720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="2">
         <v>709</v>
       </c>
@@ -67978,7 +67978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="2">
         <v>712</v>
       </c>
@@ -68061,7 +68061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="2">
         <v>713</v>
       </c>
@@ -68135,7 +68135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="2">
         <v>714</v>
       </c>
@@ -68206,7 +68206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="2">
         <v>715</v>
       </c>
@@ -68277,7 +68277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="2">
         <v>716</v>
       </c>
@@ -68425,7 +68425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="2">
         <v>718</v>
       </c>
@@ -68502,7 +68502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="2">
         <v>719</v>
       </c>
@@ -68579,7 +68579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="2">
         <v>720</v>
       </c>
@@ -68656,7 +68656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="2">
         <v>721</v>
       </c>
@@ -68736,7 +68736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="2">
         <v>722</v>
       </c>
@@ -68899,7 +68899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="2">
         <v>724</v>
       </c>
@@ -68985,7 +68985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="2">
         <v>725</v>
       </c>
@@ -69062,7 +69062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="2">
         <v>726</v>
       </c>
@@ -69130,7 +69130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="2">
         <v>727</v>
       </c>
@@ -69207,7 +69207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="2">
         <v>728</v>
       </c>
@@ -69284,7 +69284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="2">
         <v>729</v>
       </c>
@@ -69367,7 +69367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="2">
         <v>730</v>
       </c>
@@ -69444,7 +69444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="2">
         <v>731</v>
       </c>
@@ -69521,7 +69521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="2">
         <v>732</v>
       </c>
@@ -69607,7 +69607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="2">
         <v>733</v>
       </c>
@@ -69684,7 +69684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="2">
         <v>734</v>
       </c>
@@ -69761,7 +69761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="2">
         <v>735</v>
       </c>
@@ -69823,7 +69823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="2">
         <v>736</v>
       </c>
@@ -69900,7 +69900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="2">
         <v>737</v>
       </c>
@@ -69983,7 +69983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="2">
         <v>738</v>
       </c>
@@ -70060,7 +70060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="2">
         <v>739</v>
       </c>
@@ -70223,7 +70223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="2">
         <v>741</v>
       </c>
@@ -70389,7 +70389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="2">
         <v>743</v>
       </c>
@@ -70475,7 +70475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="2">
         <v>744</v>
       </c>
@@ -70543,7 +70543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A746" s="2">
         <v>745</v>
       </c>
@@ -70620,7 +70620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A747" s="2">
         <v>746</v>
       </c>
@@ -70697,7 +70697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A748" s="2">
         <v>747</v>
       </c>
@@ -70774,7 +70774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A749" s="2">
         <v>748</v>
       </c>
@@ -70845,7 +70845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A750" s="2">
         <v>749</v>
       </c>
@@ -70916,7 +70916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="2">
         <v>750</v>
       </c>
@@ -70987,7 +70987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="2">
         <v>751</v>
       </c>
@@ -71144,7 +71144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="2">
         <v>753</v>
       </c>
@@ -71221,7 +71221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="2">
         <v>754</v>
       </c>
@@ -71286,7 +71286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="2">
         <v>755</v>
       </c>
@@ -71363,7 +71363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="2">
         <v>756</v>
       </c>
@@ -71446,7 +71446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="2">
         <v>757</v>
       </c>
@@ -71523,7 +71523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="2">
         <v>758</v>
       </c>
@@ -71600,7 +71600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="2">
         <v>759</v>
       </c>
@@ -71677,7 +71677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="2">
         <v>760</v>
       </c>
@@ -71754,7 +71754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="2">
         <v>761</v>
       </c>
@@ -71831,7 +71831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="2">
         <v>762</v>
       </c>
@@ -71908,7 +71908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="2">
         <v>763</v>
       </c>
@@ -71985,7 +71985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="2">
         <v>764</v>
       </c>
@@ -72062,7 +72062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="2">
         <v>765</v>
       </c>
@@ -72139,7 +72139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="2">
         <v>766</v>
       </c>
@@ -72216,7 +72216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="2">
         <v>767</v>
       </c>
@@ -72299,7 +72299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="2">
         <v>768</v>
       </c>
@@ -72376,7 +72376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="2">
         <v>769</v>
       </c>
@@ -72453,7 +72453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="2">
         <v>770</v>
       </c>
@@ -72524,7 +72524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="2">
         <v>771</v>
       </c>
@@ -72607,7 +72607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A773" s="2">
         <v>772</v>
       </c>
@@ -72687,7 +72687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A774" s="2">
         <v>773</v>
       </c>
@@ -72761,7 +72761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A775" s="2">
         <v>774</v>
       </c>
@@ -72835,7 +72835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A776" s="2">
         <v>775</v>
       </c>
@@ -72906,7 +72906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A777" s="2">
         <v>776</v>
       </c>
@@ -72977,7 +72977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A778" s="2">
         <v>777</v>
       </c>
@@ -73051,7 +73051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A779" s="2">
         <v>778</v>
       </c>
@@ -73122,7 +73122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A780" s="2">
         <v>779</v>
       </c>
@@ -73193,7 +73193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A781" s="2">
         <v>780</v>
       </c>
@@ -73268,18 +73268,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AO781" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="20">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="25">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:AO781" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/src/a_place_for_salvador_allende_investigation.xlsx
+++ b/src/a_place_for_salvador_allende_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoGro\Desktop\Repos\a-place-for-salvador-allende\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428F199F-0FE4-49C6-8ED0-34D558EFE2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52C02AD-21B3-4D93-90FB-E2F8EB26F089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14199,16 +14199,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AO781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14515,7 +14515,7 @@
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
     </row>
-    <row r="4" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -15662,7 +15662,7 @@
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
     </row>
-    <row r="17" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -16388,7 +16388,7 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
     </row>
-    <row r="25" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -16561,7 +16561,7 @@
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
     </row>
-    <row r="27" spans="1:41" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -18888,7 +18888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -20721,7 +20721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -20890,7 +20890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -21121,7 +21121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -21195,7 +21195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -21275,7 +21275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -21426,7 +21426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -21500,7 +21500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -21577,7 +21577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -21648,7 +21648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -21799,7 +21799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -21870,7 +21870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -22089,7 +22089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -22160,7 +22160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -22237,7 +22237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -22308,7 +22308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -22379,7 +22379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -22453,7 +22453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -22503,7 +22503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -22586,7 +22586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -22669,7 +22669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -22811,7 +22811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -22891,7 +22891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -22971,7 +22971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -23042,7 +23042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -23113,7 +23113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -23187,7 +23187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -23255,7 +23255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -23447,7 +23447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -23574,7 +23574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -23648,7 +23648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -23799,7 +23799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -23923,7 +23923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -23991,7 +23991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -24201,7 +24201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -24275,7 +24275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -24352,7 +24352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -24559,7 +24559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -24627,7 +24627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -24766,7 +24766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -24905,7 +24905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -25331,7 +25331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -25417,7 +25417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -25491,7 +25491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -25565,7 +25565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -25651,7 +25651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -25725,7 +25725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -25802,7 +25802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -25953,7 +25953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -26033,7 +26033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -26104,7 +26104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -26175,7 +26175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -26225,7 +26225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -26364,7 +26364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -26435,7 +26435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -26515,7 +26515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -26580,7 +26580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -26630,7 +26630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -26778,7 +26778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -26828,7 +26828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -26878,7 +26878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -26958,7 +26958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -27029,7 +27029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -27109,7 +27109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -27183,7 +27183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -27260,7 +27260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -27346,7 +27346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -27420,7 +27420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -27494,7 +27494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -27574,7 +27574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -27657,7 +27657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -27734,7 +27734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -27817,7 +27817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -27888,7 +27888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -27920,10 +27920,10 @@
         <v>2005</v>
       </c>
       <c r="L185" s="2">
-        <v>10.276966835161099</v>
+        <v>10.2769935299275</v>
       </c>
       <c r="M185" s="2">
-        <v>10.276966835161099</v>
+        <v>-68.006670223313094</v>
       </c>
       <c r="N185" s="2">
         <v>2007</v>
@@ -27965,7 +27965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -28178,7 +28178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -28255,7 +28255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -28403,7 +28403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -28480,7 +28480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -28640,7 +28640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -28714,7 +28714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -28856,7 +28856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -28933,7 +28933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -29075,7 +29075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -29158,7 +29158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -29303,7 +29303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -29383,7 +29383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -29455,7 +29455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -29591,7 +29591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -29727,7 +29727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -29804,7 +29804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -29881,7 +29881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -29958,7 +29958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -30032,7 +30032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -30112,7 +30112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -30245,7 +30245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -30313,7 +30313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -30378,7 +30378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -30455,7 +30455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -30576,7 +30576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -30656,7 +30656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -30715,7 +30715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -30786,7 +30786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -30866,7 +30866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -30949,7 +30949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -31014,7 +31014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -31088,7 +31088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -31159,7 +31159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -31233,7 +31233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -31301,7 +31301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -31375,7 +31375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -31449,7 +31449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -31517,7 +31517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -31588,7 +31588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -31656,7 +31656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -31727,7 +31727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -31804,7 +31804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -31884,7 +31884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -31961,7 +31961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -32035,7 +32035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -32112,7 +32112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -32186,7 +32186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -32272,7 +32272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -32328,7 +32328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -32399,7 +32399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -32467,7 +32467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -32541,7 +32541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -32615,7 +32615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -32775,7 +32775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -32849,7 +32849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -32926,7 +32926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -33000,7 +33000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -33077,7 +33077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -33154,7 +33154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -33231,7 +33231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -33305,7 +33305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -33379,7 +33379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -33456,7 +33456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -33527,7 +33527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -33604,7 +33604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -33681,7 +33681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -33758,7 +33758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -33832,7 +33832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -33903,7 +33903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -33980,7 +33980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -34057,7 +34057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -34107,7 +34107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -34181,7 +34181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -34258,7 +34258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -34335,7 +34335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -34412,7 +34412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -34486,7 +34486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -34563,7 +34563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -34640,7 +34640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -34717,7 +34717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -34865,7 +34865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -34942,7 +34942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -35016,7 +35016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -35247,7 +35247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -35324,7 +35324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -35401,7 +35401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -35484,7 +35484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -35564,7 +35564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -35641,7 +35641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -35724,7 +35724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -35955,7 +35955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -36029,7 +36029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -36100,7 +36100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -36150,7 +36150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -36224,7 +36224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -36298,7 +36298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -36375,7 +36375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -36526,7 +36526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -36745,7 +36745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -36810,7 +36810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -36884,7 +36884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -36955,7 +36955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -37076,7 +37076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -37295,7 +37295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -37375,7 +37375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -37526,7 +37526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -37597,7 +37597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -37671,7 +37671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -37754,7 +37754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -37837,7 +37837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -37979,7 +37979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -38050,7 +38050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -38127,7 +38127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -38204,7 +38204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -38278,7 +38278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -38355,7 +38355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -38432,7 +38432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -38509,7 +38509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -38580,7 +38580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -38654,7 +38654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -38725,7 +38725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -38805,7 +38805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -38882,7 +38882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -38959,7 +38959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -39033,7 +39033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -39110,7 +39110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -39169,7 +39169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -39237,7 +39237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -39305,7 +39305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -39379,7 +39379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -39456,7 +39456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -39524,7 +39524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -39607,7 +39607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -39678,7 +39678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -39749,7 +39749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -39823,7 +39823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -39897,7 +39897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -39977,7 +39977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -40054,7 +40054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -40125,7 +40125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -40202,7 +40202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -40270,7 +40270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -40344,7 +40344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -40421,7 +40421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -40480,7 +40480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -40554,7 +40554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -40628,7 +40628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -40684,7 +40684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -40767,7 +40767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -40853,7 +40853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -40927,7 +40927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -41010,7 +41010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -41084,7 +41084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -41161,7 +41161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -41232,7 +41232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -41318,7 +41318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -41392,7 +41392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -41475,7 +41475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -41552,7 +41552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -41635,7 +41635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -41715,7 +41715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -41792,7 +41792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -41866,7 +41866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -41940,7 +41940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -42023,7 +42023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -42106,7 +42106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -42180,7 +42180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -42260,7 +42260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -42337,7 +42337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -42423,7 +42423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -42500,7 +42500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -42577,7 +42577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -42654,7 +42654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -42731,7 +42731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -42808,7 +42808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -42891,7 +42891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -42968,7 +42968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -43045,7 +43045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -43119,7 +43119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -43196,7 +43196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -43273,7 +43273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -43353,7 +43353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -43430,7 +43430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -43510,7 +43510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -43584,7 +43584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -43661,7 +43661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -43741,7 +43741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -43824,7 +43824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -43901,7 +43901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -43975,7 +43975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -44052,7 +44052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -44129,7 +44129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -44206,7 +44206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -44283,7 +44283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -44363,7 +44363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -44449,7 +44449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -44526,7 +44526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -44600,7 +44600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -44677,7 +44677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -44748,7 +44748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -44819,7 +44819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -44893,7 +44893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -44976,7 +44976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -45059,7 +45059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -45136,7 +45136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -45213,7 +45213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -45290,7 +45290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -45370,7 +45370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -45447,7 +45447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -45527,7 +45527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -45601,7 +45601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -45681,7 +45681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -45758,7 +45758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -45835,7 +45835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -45912,7 +45912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -45989,7 +45989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -46066,7 +46066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -46143,7 +46143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -46220,7 +46220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -46294,7 +46294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -46368,7 +46368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -46451,7 +46451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -46525,7 +46525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -46602,7 +46602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -46679,7 +46679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -46753,7 +46753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -46827,7 +46827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -46904,7 +46904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -46987,7 +46987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -47067,7 +47067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -47141,7 +47141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -47218,7 +47218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -47295,7 +47295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -47369,7 +47369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -47443,7 +47443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -47523,7 +47523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -47606,7 +47606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -47683,7 +47683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -47760,7 +47760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -47834,7 +47834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -47911,7 +47911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -47985,7 +47985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -48062,7 +48062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -48136,7 +48136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -48213,7 +48213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -48290,7 +48290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -48367,7 +48367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -48444,7 +48444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -48521,7 +48521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -48595,7 +48595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -48672,7 +48672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -48749,7 +48749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -48823,7 +48823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -48900,7 +48900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -48977,7 +48977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -49054,7 +49054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -49131,7 +49131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -49208,7 +49208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -49285,7 +49285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -49362,7 +49362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -49445,7 +49445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -49522,7 +49522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -49602,7 +49602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -49685,7 +49685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -49765,7 +49765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -49839,7 +49839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -49916,7 +49916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -49990,7 +49990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -50076,7 +50076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -50153,7 +50153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -50224,7 +50224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -50301,7 +50301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -50378,7 +50378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -50455,7 +50455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -50529,7 +50529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -50606,7 +50606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -50680,7 +50680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -50757,7 +50757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -50831,7 +50831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -50908,7 +50908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -50991,7 +50991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -51071,7 +51071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -51157,7 +51157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -51240,7 +51240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -51317,7 +51317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -51394,7 +51394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -51471,7 +51471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -51548,7 +51548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -51622,7 +51622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="2">
         <v>499</v>
       </c>
@@ -51699,7 +51699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -51776,7 +51776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -51850,7 +51850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -51924,7 +51924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -51998,7 +51998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -52075,7 +52075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="2">
         <v>505</v>
       </c>
@@ -52149,7 +52149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="2">
         <v>506</v>
       </c>
@@ -52226,7 +52226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -52303,7 +52303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="2">
         <v>508</v>
       </c>
@@ -52380,7 +52380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="2">
         <v>509</v>
       </c>
@@ -52454,7 +52454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -52531,7 +52531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -52608,7 +52608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -52685,7 +52685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -52762,7 +52762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -52839,7 +52839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -52916,7 +52916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -52990,7 +52990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -53067,7 +53067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -53144,7 +53144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -53221,7 +53221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -53298,7 +53298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -53372,7 +53372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -53455,7 +53455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -53529,7 +53529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -53606,7 +53606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -53683,7 +53683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -53757,7 +53757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -53831,7 +53831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -53908,7 +53908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -53982,7 +53982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -54056,7 +54056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -54130,7 +54130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -54210,7 +54210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="2">
         <v>533</v>
       </c>
@@ -54293,7 +54293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="2">
         <v>534</v>
       </c>
@@ -54376,7 +54376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="2">
         <v>535</v>
       </c>
@@ -54453,7 +54453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="2">
         <v>536</v>
       </c>
@@ -54530,7 +54530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="2">
         <v>537</v>
       </c>
@@ -54607,7 +54607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="2">
         <v>538</v>
       </c>
@@ -54684,7 +54684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="2">
         <v>539</v>
       </c>
@@ -54758,7 +54758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="2">
         <v>540</v>
       </c>
@@ -54838,7 +54838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="2">
         <v>541</v>
       </c>
@@ -54915,7 +54915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="2">
         <v>542</v>
       </c>
@@ -54992,7 +54992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="2">
         <v>543</v>
       </c>
@@ -55075,7 +55075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="2">
         <v>544</v>
       </c>
@@ -55152,7 +55152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="2">
         <v>545</v>
       </c>
@@ -55229,7 +55229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="2">
         <v>546</v>
       </c>
@@ -55306,7 +55306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="2">
         <v>547</v>
       </c>
@@ -55380,7 +55380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="2">
         <v>548</v>
       </c>
@@ -55463,7 +55463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="2">
         <v>549</v>
       </c>
@@ -55537,7 +55537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="2">
         <v>550</v>
       </c>
@@ -55611,7 +55611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -55685,7 +55685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -55765,7 +55765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="2">
         <v>553</v>
       </c>
@@ -55848,7 +55848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="2">
         <v>554</v>
       </c>
@@ -55925,7 +55925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="2">
         <v>555</v>
       </c>
@@ -55999,7 +55999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="2">
         <v>556</v>
       </c>
@@ -56073,7 +56073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="2">
         <v>557</v>
       </c>
@@ -56156,7 +56156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="2">
         <v>558</v>
       </c>
@@ -56230,7 +56230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="2">
         <v>559</v>
       </c>
@@ -56307,7 +56307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="2">
         <v>560</v>
       </c>
@@ -56384,7 +56384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="2">
         <v>561</v>
       </c>
@@ -56458,7 +56458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="2">
         <v>562</v>
       </c>
@@ -56535,7 +56535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="2">
         <v>563</v>
       </c>
@@ -56609,7 +56609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="2">
         <v>564</v>
       </c>
@@ -56686,7 +56686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="2">
         <v>565</v>
       </c>
@@ -56760,7 +56760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="2">
         <v>566</v>
       </c>
@@ -56834,7 +56834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="2">
         <v>567</v>
       </c>
@@ -56917,7 +56917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="2">
         <v>568</v>
       </c>
@@ -56994,7 +56994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="2">
         <v>569</v>
       </c>
@@ -57065,7 +57065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="2">
         <v>570</v>
       </c>
@@ -57142,7 +57142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="2">
         <v>571</v>
       </c>
@@ -57219,7 +57219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="2">
         <v>572</v>
       </c>
@@ -57293,7 +57293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="2">
         <v>573</v>
       </c>
@@ -57367,7 +57367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="2">
         <v>574</v>
       </c>
@@ -57441,7 +57441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="2">
         <v>575</v>
       </c>
@@ -57515,7 +57515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="2">
         <v>576</v>
       </c>
@@ -57589,7 +57589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="2">
         <v>577</v>
       </c>
@@ -57663,7 +57663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="2">
         <v>578</v>
       </c>
@@ -57740,7 +57740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="2">
         <v>579</v>
       </c>
@@ -57814,7 +57814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="2">
         <v>580</v>
       </c>
@@ -57888,7 +57888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="2">
         <v>581</v>
       </c>
@@ -57962,7 +57962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="2">
         <v>582</v>
       </c>
@@ -58036,7 +58036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="2">
         <v>583</v>
       </c>
@@ -58110,7 +58110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="2">
         <v>584</v>
       </c>
@@ -58187,7 +58187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="2">
         <v>585</v>
       </c>
@@ -58261,7 +58261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="2">
         <v>586</v>
       </c>
@@ -58338,7 +58338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="2">
         <v>587</v>
       </c>
@@ -58412,7 +58412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="2">
         <v>588</v>
       </c>
@@ -58489,7 +58489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="2">
         <v>589</v>
       </c>
@@ -58563,7 +58563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="2">
         <v>590</v>
       </c>
@@ -58637,7 +58637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="2">
         <v>591</v>
       </c>
@@ -58711,7 +58711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="2">
         <v>592</v>
       </c>
@@ -58785,7 +58785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="2">
         <v>593</v>
       </c>
@@ -58862,7 +58862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="2">
         <v>594</v>
       </c>
@@ -58939,7 +58939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="2">
         <v>595</v>
       </c>
@@ -59016,7 +59016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="2">
         <v>596</v>
       </c>
@@ -59093,7 +59093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="2">
         <v>597</v>
       </c>
@@ -59173,7 +59173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="2">
         <v>598</v>
       </c>
@@ -59256,7 +59256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="2">
         <v>599</v>
       </c>
@@ -59333,7 +59333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="2">
         <v>600</v>
       </c>
@@ -59416,7 +59416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="2">
         <v>601</v>
       </c>
@@ -59496,7 +59496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="2">
         <v>602</v>
       </c>
@@ -59570,7 +59570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="2">
         <v>603</v>
       </c>
@@ -59647,7 +59647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="2">
         <v>604</v>
       </c>
@@ -59724,7 +59724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="2">
         <v>605</v>
       </c>
@@ -59810,7 +59810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="2">
         <v>606</v>
       </c>
@@ -59887,7 +59887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="2">
         <v>607</v>
       </c>
@@ -59967,7 +59967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="2">
         <v>608</v>
       </c>
@@ -60050,7 +60050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="2">
         <v>609</v>
       </c>
@@ -60127,7 +60127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="2">
         <v>610</v>
       </c>
@@ -60204,7 +60204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="2">
         <v>611</v>
       </c>
@@ -60278,7 +60278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="2">
         <v>612</v>
       </c>
@@ -60355,7 +60355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="2">
         <v>613</v>
       </c>
@@ -60432,7 +60432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="2">
         <v>614</v>
       </c>
@@ -60509,7 +60509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="2">
         <v>615</v>
       </c>
@@ -60592,7 +60592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="2">
         <v>616</v>
       </c>
@@ -60669,7 +60669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="2">
         <v>617</v>
       </c>
@@ -60746,7 +60746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="2">
         <v>618</v>
       </c>
@@ -60823,7 +60823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="2">
         <v>619</v>
       </c>
@@ -60900,7 +60900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="2">
         <v>620</v>
       </c>
@@ -60974,7 +60974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="2">
         <v>621</v>
       </c>
@@ -61054,7 +61054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="2">
         <v>622</v>
       </c>
@@ -61128,7 +61128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="2">
         <v>623</v>
       </c>
@@ -61208,7 +61208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="2">
         <v>624</v>
       </c>
@@ -61282,7 +61282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="2">
         <v>625</v>
       </c>
@@ -61359,7 +61359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="2">
         <v>626</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="2">
         <v>627</v>
       </c>
@@ -61510,7 +61510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="2">
         <v>628</v>
       </c>
@@ -61584,7 +61584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="2">
         <v>629</v>
       </c>
@@ -61661,7 +61661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="2">
         <v>630</v>
       </c>
@@ -61738,7 +61738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="2">
         <v>631</v>
       </c>
@@ -61815,7 +61815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="2">
         <v>632</v>
       </c>
@@ -61889,7 +61889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="2">
         <v>633</v>
       </c>
@@ -61972,7 +61972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="2">
         <v>634</v>
       </c>
@@ -62049,7 +62049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="2">
         <v>635</v>
       </c>
@@ -62132,7 +62132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="2">
         <v>636</v>
       </c>
@@ -62209,7 +62209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="2">
         <v>637</v>
       </c>
@@ -62280,7 +62280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="2">
         <v>638</v>
       </c>
@@ -62354,7 +62354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="2">
         <v>639</v>
       </c>
@@ -62434,7 +62434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="2">
         <v>640</v>
       </c>
@@ -62511,7 +62511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="2">
         <v>641</v>
       </c>
@@ -62585,7 +62585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="2">
         <v>642</v>
       </c>
@@ -62659,7 +62659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="2">
         <v>643</v>
       </c>
@@ -62733,7 +62733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="2">
         <v>644</v>
       </c>
@@ -62810,7 +62810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="2">
         <v>645</v>
       </c>
@@ -62887,7 +62887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="2">
         <v>646</v>
       </c>
@@ -62964,7 +62964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="2">
         <v>647</v>
       </c>
@@ -63041,7 +63041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="2">
         <v>648</v>
       </c>
@@ -63118,7 +63118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="2">
         <v>649</v>
       </c>
@@ -63195,7 +63195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="2">
         <v>650</v>
       </c>
@@ -63269,7 +63269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="2">
         <v>651</v>
       </c>
@@ -63349,7 +63349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="2">
         <v>652</v>
       </c>
@@ -63423,7 +63423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="2">
         <v>653</v>
       </c>
@@ -63497,7 +63497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="2">
         <v>654</v>
       </c>
@@ -63574,7 +63574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="2">
         <v>655</v>
       </c>
@@ -63657,7 +63657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="2">
         <v>656</v>
       </c>
@@ -63734,7 +63734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="2">
         <v>657</v>
       </c>
@@ -63808,7 +63808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="2">
         <v>658</v>
       </c>
@@ -63885,7 +63885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="2">
         <v>659</v>
       </c>
@@ -63965,7 +63965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="2">
         <v>660</v>
       </c>
@@ -64042,7 +64042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="2">
         <v>661</v>
       </c>
@@ -64119,7 +64119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="2">
         <v>662</v>
       </c>
@@ -64196,7 +64196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="2">
         <v>663</v>
       </c>
@@ -64273,7 +64273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="2">
         <v>664</v>
       </c>
@@ -64347,7 +64347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="2">
         <v>665</v>
       </c>
@@ -64424,7 +64424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="2">
         <v>666</v>
       </c>
@@ -64501,7 +64501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="2">
         <v>667</v>
       </c>
@@ -64578,7 +64578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="2">
         <v>668</v>
       </c>
@@ -64655,7 +64655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="2">
         <v>669</v>
       </c>
@@ -64729,7 +64729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="2">
         <v>670</v>
       </c>
@@ -64806,7 +64806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="2">
         <v>671</v>
       </c>
@@ -64883,7 +64883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="2">
         <v>672</v>
       </c>
@@ -64960,7 +64960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="2">
         <v>673</v>
       </c>
@@ -65043,7 +65043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="2">
         <v>674</v>
       </c>
@@ -65126,7 +65126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="2">
         <v>675</v>
       </c>
@@ -65203,7 +65203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="2">
         <v>676</v>
       </c>
@@ -65280,7 +65280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="2">
         <v>677</v>
       </c>
@@ -65354,7 +65354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="2">
         <v>678</v>
       </c>
@@ -65431,7 +65431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="2">
         <v>679</v>
       </c>
@@ -65508,7 +65508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="2">
         <v>680</v>
       </c>
@@ -65591,7 +65591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="2">
         <v>681</v>
       </c>
@@ -65665,7 +65665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="2">
         <v>682</v>
       </c>
@@ -65739,7 +65739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="2">
         <v>683</v>
       </c>
@@ -65804,7 +65804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="2">
         <v>684</v>
       </c>
@@ -65878,7 +65878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="2">
         <v>685</v>
       </c>
@@ -65940,7 +65940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="2">
         <v>686</v>
       </c>
@@ -66005,7 +66005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="2">
         <v>687</v>
       </c>
@@ -66082,7 +66082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="2">
         <v>688</v>
       </c>
@@ -66153,7 +66153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="2">
         <v>689</v>
       </c>
@@ -66230,7 +66230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="2">
         <v>690</v>
       </c>
@@ -66307,7 +66307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="2">
         <v>691</v>
       </c>
@@ -66384,7 +66384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="2">
         <v>692</v>
       </c>
@@ -66464,7 +66464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="2">
         <v>693</v>
       </c>
@@ -66541,7 +66541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A695" s="2">
         <v>694</v>
       </c>
@@ -66627,7 +66627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="2">
         <v>695</v>
       </c>
@@ -66704,7 +66704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="2">
         <v>696</v>
       </c>
@@ -66781,7 +66781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="2">
         <v>697</v>
       </c>
@@ -66843,7 +66843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A699" s="2">
         <v>698</v>
       </c>
@@ -66929,7 +66929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="2">
         <v>699</v>
       </c>
@@ -67015,7 +67015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="2">
         <v>700</v>
       </c>
@@ -67101,7 +67101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="2">
         <v>701</v>
       </c>
@@ -67175,7 +67175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="2">
         <v>702</v>
       </c>
@@ -67252,7 +67252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="2">
         <v>703</v>
       </c>
@@ -67329,7 +67329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="2">
         <v>704</v>
       </c>
@@ -67406,7 +67406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="2">
         <v>705</v>
       </c>
@@ -67483,7 +67483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="2">
         <v>706</v>
       </c>
@@ -67557,7 +67557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="2">
         <v>707</v>
       </c>
@@ -67634,7 +67634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A709" s="2">
         <v>708</v>
       </c>
@@ -67720,7 +67720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="2">
         <v>709</v>
       </c>
@@ -67806,7 +67806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A711" s="2">
         <v>710</v>
       </c>
@@ -67892,7 +67892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A712" s="2">
         <v>711</v>
       </c>
@@ -67978,7 +67978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="2">
         <v>712</v>
       </c>
@@ -68061,7 +68061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="2">
         <v>713</v>
       </c>
@@ -68135,7 +68135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="2">
         <v>714</v>
       </c>
@@ -68206,7 +68206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="2">
         <v>715</v>
       </c>
@@ -68277,7 +68277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="2">
         <v>716</v>
       </c>
@@ -68342,7 +68342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A718" s="2">
         <v>717</v>
       </c>
@@ -68425,7 +68425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="2">
         <v>718</v>
       </c>
@@ -68502,7 +68502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="2">
         <v>719</v>
       </c>
@@ -68579,7 +68579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="2">
         <v>720</v>
       </c>
@@ -68656,7 +68656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="2">
         <v>721</v>
       </c>
@@ -68736,7 +68736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="2">
         <v>722</v>
       </c>
@@ -68813,7 +68813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A724" s="2">
         <v>723</v>
       </c>
@@ -68899,7 +68899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="2">
         <v>724</v>
       </c>
@@ -68985,7 +68985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="2">
         <v>725</v>
       </c>
@@ -69062,7 +69062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="2">
         <v>726</v>
       </c>
@@ -69130,7 +69130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="2">
         <v>727</v>
       </c>
@@ -69207,7 +69207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="2">
         <v>728</v>
       </c>
@@ -69284,7 +69284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="2">
         <v>729</v>
       </c>
@@ -69367,7 +69367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="2">
         <v>730</v>
       </c>
@@ -69444,7 +69444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="2">
         <v>731</v>
       </c>
@@ -69521,7 +69521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="2">
         <v>732</v>
       </c>
@@ -69607,7 +69607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="2">
         <v>733</v>
       </c>
@@ -69684,7 +69684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="2">
         <v>734</v>
       </c>
@@ -69761,7 +69761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="2">
         <v>735</v>
       </c>
@@ -69823,7 +69823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="2">
         <v>736</v>
       </c>
@@ -69900,7 +69900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="2">
         <v>737</v>
       </c>
@@ -69983,7 +69983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="2">
         <v>738</v>
       </c>
@@ -70060,7 +70060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="2">
         <v>739</v>
       </c>
@@ -70137,7 +70137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A741" s="2">
         <v>740</v>
       </c>
@@ -70223,7 +70223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="2">
         <v>741</v>
       </c>
@@ -70309,7 +70309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A743" s="2">
         <v>742</v>
       </c>
@@ -70389,7 +70389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="2">
         <v>743</v>
       </c>
@@ -70475,7 +70475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="2">
         <v>744</v>
       </c>
@@ -70543,7 +70543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A746" s="2">
         <v>745</v>
       </c>
@@ -70620,7 +70620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A747" s="2">
         <v>746</v>
       </c>
@@ -70697,7 +70697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A748" s="2">
         <v>747</v>
       </c>
@@ -70774,7 +70774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A749" s="2">
         <v>748</v>
       </c>
@@ -70845,7 +70845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A750" s="2">
         <v>749</v>
       </c>
@@ -70916,7 +70916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="2">
         <v>750</v>
       </c>
@@ -70987,7 +70987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="2">
         <v>751</v>
       </c>
@@ -71061,7 +71061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A753" s="2">
         <v>752</v>
       </c>
@@ -71144,7 +71144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="2">
         <v>753</v>
       </c>
@@ -71221,7 +71221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="2">
         <v>754</v>
       </c>
@@ -71286,7 +71286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="2">
         <v>755</v>
       </c>
@@ -71363,7 +71363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="2">
         <v>756</v>
       </c>
@@ -71446,7 +71446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="2">
         <v>757</v>
       </c>
@@ -71523,7 +71523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="2">
         <v>758</v>
       </c>
@@ -71600,7 +71600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="2">
         <v>759</v>
       </c>
@@ -71677,7 +71677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="2">
         <v>760</v>
       </c>
@@ -71754,7 +71754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="2">
         <v>761</v>
       </c>
@@ -71831,7 +71831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="2">
         <v>762</v>
       </c>
@@ -71908,7 +71908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="2">
         <v>763</v>
       </c>
@@ -71985,7 +71985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="2">
         <v>764</v>
       </c>
@@ -72062,7 +72062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="2">
         <v>765</v>
       </c>
@@ -72139,7 +72139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="2">
         <v>766</v>
       </c>
@@ -72216,7 +72216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="2">
         <v>767</v>
       </c>
@@ -72299,7 +72299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="2">
         <v>768</v>
       </c>
@@ -72376,7 +72376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="2">
         <v>769</v>
       </c>
@@ -72453,7 +72453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="2">
         <v>770</v>
       </c>
@@ -72524,7 +72524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="2">
         <v>771</v>
       </c>
@@ -72607,7 +72607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A773" s="2">
         <v>772</v>
       </c>
@@ -72687,7 +72687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A774" s="2">
         <v>773</v>
       </c>
@@ -72761,7 +72761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A775" s="2">
         <v>774</v>
       </c>
@@ -72835,7 +72835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A776" s="2">
         <v>775</v>
       </c>
@@ -72906,7 +72906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A777" s="2">
         <v>776</v>
       </c>
@@ -72977,7 +72977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A778" s="2">
         <v>777</v>
       </c>
@@ -73051,7 +73051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A779" s="2">
         <v>778</v>
       </c>
@@ -73122,7 +73122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A780" s="2">
         <v>779</v>
       </c>
@@ -73193,7 +73193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A781" s="2">
         <v>780</v>
       </c>
@@ -73268,18 +73268,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AO781" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Chile"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="20">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:AO781" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/src/a_place_for_salvador_allende_investigation.xlsx
+++ b/src/a_place_for_salvador_allende_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoGro\Desktop\Repos\a-place-for-salvador-allende\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52C02AD-21B3-4D93-90FB-E2F8EB26F089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89308406-0D13-4DBD-AADA-B5E2F8F45703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14205,10 +14205,10 @@
   <dimension ref="A1:AO781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/src/a_place_for_salvador_allende_investigation.xlsx
+++ b/src/a_place_for_salvador_allende_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoGro\Desktop\Repos\a-place-for-salvador-allende\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89308406-0D13-4DBD-AADA-B5E2F8F45703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E7A8AD-56C8-4FE0-91BB-279E0420CA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14205,7 +14205,7 @@
   <dimension ref="A1:AO781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A119" sqref="A119"/>

--- a/src/a_place_for_salvador_allende_investigation.xlsx
+++ b/src/a_place_for_salvador_allende_investigation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoGro\Desktop\Repos\a-place-for-salvador-allende\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D82413-392F-4D2A-9D90-EE167C86E06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F18B85B-A042-4131-AB62-7761B5754E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10582" uniqueCount="4423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10593" uniqueCount="4430">
   <si>
     <t>id</t>
   </si>
@@ -13934,6 +13934,27 @@
   </si>
   <si>
     <t>Türkiye</t>
+  </si>
+  <si>
+    <t>S. Allendeplein</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Hoornse Meer</t>
+  </si>
+  <si>
+    <t>9728 TK</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/6398894</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/rucZv3wDT9XHMDxh9</t>
   </si>
 </sst>
 </file>
@@ -14264,10 +14285,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AO784"/>
+  <dimension ref="A1:AO785"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B766" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B769" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A785" sqref="A785"/>
@@ -73557,6 +73578,74 @@
         <v>1</v>
       </c>
       <c r="AD784" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A785" s="2">
+        <v>784</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D785" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E785" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="F785" s="2" t="s">
+        <v>4424</v>
+      </c>
+      <c r="G785" s="2" t="s">
+        <v>4425</v>
+      </c>
+      <c r="H785" s="2" t="s">
+        <v>4426</v>
+      </c>
+      <c r="K785" s="8" t="s">
+        <v>4427</v>
+      </c>
+      <c r="L785" s="2">
+        <v>53.187083000000001</v>
+      </c>
+      <c r="M785" s="2">
+        <v>6.5580499999999997</v>
+      </c>
+      <c r="N785" s="2">
+        <v>2007</v>
+      </c>
+      <c r="O785" s="2">
+        <v>9</v>
+      </c>
+      <c r="P785" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q785" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="V785" s="2">
+        <v>1</v>
+      </c>
+      <c r="W785" s="2" t="s">
+        <v>4428</v>
+      </c>
+      <c r="X785" s="2" t="s">
+        <v>4429</v>
+      </c>
+      <c r="Z785" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA785" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB785" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD785" s="2">
         <v>0</v>
       </c>
     </row>
@@ -73808,8 +73897,10 @@
     <hyperlink ref="W783" r:id="rId240" xr:uid="{7136AED7-8E4D-4005-B17C-13FAA14C5039}"/>
     <hyperlink ref="W784" r:id="rId241" xr:uid="{4377744F-01D4-42AC-8B65-6CEE2A3C5E26}"/>
     <hyperlink ref="X784" r:id="rId242" xr:uid="{C269A189-3033-4CC4-A764-7C4CD08213D0}"/>
+    <hyperlink ref="X785" r:id="rId243" xr:uid="{1F455F3F-72AC-462B-ACA7-3379A0000C64}"/>
+    <hyperlink ref="W785" r:id="rId244" xr:uid="{7E8A621A-A734-4D68-B7FE-A1C8D0638DEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId243"/>
+  <pageSetup orientation="portrait" r:id="rId245"/>
 </worksheet>
 </file>